--- a/test_data/test1.xlsx
+++ b/test_data/test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="8820" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1295,10 +1295,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1339,16 +1339,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1362,14 +1354,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1380,6 +1364,43 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1407,14 +1428,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1432,6 +1445,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1440,28 +1461,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1482,7 +1482,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1494,7 +1572,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1506,157 +1650,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1719,13 +1719,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1749,7 +1762,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1768,39 +1801,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1809,10 +1809,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1821,16 +1821,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -1842,112 +1842,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2680,7 +2680,7 @@
   <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3828,8 +3828,8 @@
   <sheetPr/>
   <dimension ref="B1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3846,7 +3846,7 @@
         <v>150</v>
       </c>
       <c r="D1">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="2:3">

--- a/test_data/test1.xlsx
+++ b/test_data/test1.xlsx
@@ -3,16 +3,18 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22368" windowHeight="8820" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22368" windowHeight="9420" tabRatio="705" firstSheet="1" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="purchase_order" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="rec_ticket" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="pay_ticket" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="user" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="report_data" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="agent_purchase" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="rec_ticket" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="pay_ticket" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="platform_pay" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="user" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="report_data" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -63,6 +65,13 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -70,21 +79,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -99,7 +95,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -113,7 +117,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -128,23 +133,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -161,7 +150,14 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,16 +171,22 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -204,79 +206,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,7 +230,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,31 +278,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,31 +308,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,11 +458,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,8 +499,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -500,26 +519,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,10 +533,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -543,16 +545,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
@@ -564,116 +566,116 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -695,6 +697,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -1188,12 +1193,12 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/user-center/auth/staff/login</t>
         </is>
       </c>
-      <c r="C2" s="8" t="inlineStr">
+      <c r="C2" s="9" t="inlineStr">
         <is>
           <t>{"cityId": 306,"system": "android","model": "phone","appId": "commission","uid": "","areaCode": "+86","account": "13100000008","password": ""}</t>
         </is>
@@ -1223,12 +1228,12 @@
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/user-center/auth/staff/login</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>{"cityId": 306,"system": "android","model": "phone","appId": "commission","uid": "","areaCode": "+86","account": "","password": "123456"}</t>
         </is>
@@ -1258,12 +1263,12 @@
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="11" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/user-center/auth/staff/login</t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="C4" s="9" t="inlineStr">
         <is>
           <t>{"cityId": 306,"system": "android","model": "phone","appId": "commission","uid": "","areaCode": "+86","account": "13100000008","password": "1234567"}</t>
         </is>
@@ -1293,12 +1298,12 @@
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="11" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/user-center/auth/staff/login</t>
         </is>
       </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="C5" s="9" t="inlineStr">
         <is>
           <t>{"cityId": 306,"system": "android","model": "phone","appId": "commission","uid": "","areaCode": "+86","account": "13100000008","password": "123456"}</t>
         </is>
@@ -1403,12 +1408,12 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/user-center/auth/staff/login</t>
         </is>
       </c>
-      <c r="C2" s="8" t="inlineStr">
+      <c r="C2" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 {
@@ -1423,7 +1428,7 @@
 }</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="D2" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
@@ -1443,17 +1448,17 @@
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/user-center/auth/staff/login</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>{"cityId": 306,"system": "android","model": "phone","appId": "commission","uid": "","areaCode": "+86","account": "","password": "123456"}</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
@@ -1473,17 +1478,17 @@
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="11" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/user-center/auth/staff/login</t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="C4" s="9" t="inlineStr">
         <is>
           <t>{"cityId": 306,"system": "android","model": "phone","appId": "commission","uid": "","areaCode": "+86","account": "13100000008","password": "1234567"}</t>
         </is>
       </c>
-      <c r="D4" s="8" t="inlineStr">
+      <c r="D4" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
@@ -1513,17 +1518,17 @@
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="11" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/user-center/auth/staff/login</t>
         </is>
       </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="C5" s="9" t="inlineStr">
         <is>
           <t>{"cityId": 306,"system": "android","model": "phone","appId": "commission","uid": "","areaCode": "+86","account": "13100000008","password": "123456"}</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
+      <c r="D5" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
@@ -1540,63 +1545,63 @@
       </c>
     </row>
     <row r="6" ht="28.8" customHeight="1" s="1">
-      <c r="D6" s="8" t="inlineStr">
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
     </row>
     <row r="7" ht="28.8" customHeight="1" s="1">
-      <c r="D7" s="8" t="inlineStr">
+      <c r="D7" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
     </row>
     <row r="8" ht="28.8" customHeight="1" s="1">
-      <c r="D8" s="8" t="inlineStr">
+      <c r="D8" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
     </row>
     <row r="9" ht="28.8" customHeight="1" s="1">
-      <c r="D9" s="8" t="inlineStr">
+      <c r="D9" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
     </row>
     <row r="10" ht="28.8" customHeight="1" s="1">
-      <c r="D10" s="8" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
     </row>
     <row r="11" ht="28.8" customHeight="1" s="1">
-      <c r="D11" s="8" t="inlineStr">
+      <c r="D11" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
     </row>
     <row r="12" ht="28.8" customHeight="1" s="1">
-      <c r="D12" s="8" t="inlineStr">
+      <c r="D12" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
     </row>
     <row r="13" ht="28.8" customHeight="1" s="1">
-      <c r="D13" s="8" t="inlineStr">
+      <c r="D13" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
     </row>
     <row r="14" ht="28.8" customHeight="1" s="1">
-      <c r="D14" s="8" t="inlineStr">
+      <c r="D14" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
@@ -1622,8 +1627,8 @@
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="E12" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
@@ -1693,27 +1698,27 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/pretrade/report/add</t>
         </is>
       </c>
-      <c r="C2" s="13" t="inlineStr">
+      <c r="C2" s="14" t="inlineStr">
         <is>
           <t>生成报备单</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="D2" s="9" t="inlineStr">
         <is>
           <t>{"cityId":306,"platformId":${salePlatformId},"system":"android","model":"phone","appId":"commission","uid":"${zc_userid}","departmentId":${salePlatformId},"salePlatformId":${salePlatformId},"projectId":${projectId},"deptId":4807,"agentId":"86d50b0e8aa045068e8755b7eb62a6cb","customName":"${customName}","mobileType":"1","customMobile":"169****8888","sex":1,"numPeople":3,"source":1,"reportTime":"${reportTime}","hasVisit":1,"visitTime":"${visitTime}","visitProof":[],"planVisitDate":"","remark":"提交报备1"}</t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
+      <c r="E2" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="F2" s="9" t="inlineStr">
         <is>
           <t>zc_cookie</t>
         </is>
@@ -1743,17 +1748,17 @@
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/purchase/first/submit</t>
         </is>
       </c>
-      <c r="C3" s="13" t="inlineStr">
+      <c r="C3" s="14" t="inlineStr">
         <is>
           <t>录入认购单</t>
         </is>
       </c>
-      <c r="D3" s="12" t="inlineStr">
+      <c r="D3" s="13" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -1768,7 +1773,7 @@
     "customName":"${customName}",
     "customPhone":"13729112152",
     "voucherId":"",
-    "purchaseDate":"2022-02-23",
+    "purchaseDate":"${purchaseDate}",
     "roomNo":"${roomNo}",
     "roomArea":"104.00",
     "originalPrice":1040000,
@@ -1796,12 +1801,12 @@
 }</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>zcjl_cookie</t>
         </is>
@@ -1831,17 +1836,17 @@
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="11" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/first/approve</t>
         </is>
       </c>
-      <c r="C4" s="14" t="inlineStr">
+      <c r="C4" s="15" t="inlineStr">
         <is>
           <t>认购初审通过</t>
         </is>
       </c>
-      <c r="D4" s="12" t="inlineStr">
+      <c r="D4" s="13" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -1952,12 +1957,12 @@
 }</t>
         </is>
       </c>
-      <c r="E4" s="8" t="inlineStr">
+      <c r="E4" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
+      <c r="F4" s="9" t="inlineStr">
         <is>
           <t>zcjl_cookie</t>
         </is>
@@ -1987,7 +1992,7 @@
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="11" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/groupBuy/approve</t>
         </is>
@@ -1997,7 +2002,7 @@
           <t>团购审核通过</t>
         </is>
       </c>
-      <c r="D5" s="12" t="inlineStr">
+      <c r="D5" s="13" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -2021,12 +2026,12 @@
 }</t>
         </is>
       </c>
-      <c r="E5" s="8" t="inlineStr">
+      <c r="E5" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F5" s="8" t="inlineStr">
+      <c r="F5" s="9" t="inlineStr">
         <is>
           <t>cw_cookie</t>
         </is>
@@ -2056,7 +2061,7 @@
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="11" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/recheck/approve</t>
         </is>
@@ -2066,7 +2071,7 @@
           <t>认购复审通过</t>
         </is>
       </c>
-      <c r="D6" s="12" t="inlineStr">
+      <c r="D6" s="13" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -2085,12 +2090,12 @@
 }</t>
         </is>
       </c>
-      <c r="E6" s="8" t="inlineStr">
+      <c r="E6" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F6" s="8" t="inlineStr">
+      <c r="F6" s="9" t="inlineStr">
         <is>
           <t>jszy_cookie</t>
         </is>
@@ -2120,7 +2125,7 @@
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="11" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/expand/audit</t>
         </is>
@@ -2130,7 +2135,7 @@
           <t>拓展审核通过</t>
         </is>
       </c>
-      <c r="D7" s="12" t="inlineStr">
+      <c r="D7" s="13" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -2146,12 +2151,12 @@
 }</t>
         </is>
       </c>
-      <c r="E7" s="8" t="inlineStr">
+      <c r="E7" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F7" s="8" t="inlineStr">
+      <c r="F7" s="9" t="inlineStr">
         <is>
           <t>tz_cookie</t>
         </is>
@@ -2181,7 +2186,7 @@
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="B8" s="11" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/finalCheck/approve</t>
         </is>
@@ -2191,7 +2196,7 @@
           <t>终审通过</t>
         </is>
       </c>
-      <c r="D8" s="12" t="inlineStr">
+      <c r="D8" s="13" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -2461,12 +2466,12 @@
 }</t>
         </is>
       </c>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="E8" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="F8" s="9" t="inlineStr">
         <is>
           <t>jszz_cookie</t>
         </is>
@@ -2496,7 +2501,7 @@
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="inlineStr">
+      <c r="B9" s="11" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/initialSign/edit</t>
         </is>
@@ -2506,7 +2511,7 @@
           <t>添加草签</t>
         </is>
       </c>
-      <c r="D9" s="12" t="inlineStr">
+      <c r="D9" s="13" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -2529,12 +2534,12 @@
 }</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>zc_cookie</t>
         </is>
@@ -2564,7 +2569,7 @@
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="inlineStr">
+      <c r="B10" s="11" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/initialSign/approve</t>
         </is>
@@ -2574,7 +2579,7 @@
           <t>草签审核通过</t>
         </is>
       </c>
-      <c r="D10" s="12" t="inlineStr">
+      <c r="D10" s="13" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -2590,12 +2595,12 @@
 }</t>
         </is>
       </c>
-      <c r="E10" s="8" t="inlineStr">
+      <c r="E10" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F10" s="8" t="inlineStr">
+      <c r="F10" s="9" t="inlineStr">
         <is>
           <t>jszy_cookie</t>
         </is>
@@ -2625,7 +2630,7 @@
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="11" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/netSign/edit</t>
         </is>
@@ -2635,7 +2640,7 @@
           <t>添加网签</t>
         </is>
       </c>
-      <c r="D11" s="12" t="inlineStr">
+      <c r="D11" s="13" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -2657,12 +2662,12 @@
 }</t>
         </is>
       </c>
-      <c r="E11" s="8" t="inlineStr">
+      <c r="E11" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F11" s="8" t="inlineStr">
+      <c r="F11" s="9" t="inlineStr">
         <is>
           <t>zc_cookie</t>
         </is>
@@ -2692,7 +2697,7 @@
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="inlineStr">
+      <c r="B12" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/netSign/approve</t>
         </is>
@@ -2702,7 +2707,7 @@
           <t>网签审核通过</t>
         </is>
       </c>
-      <c r="D12" s="12" t="inlineStr">
+      <c r="D12" s="13" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -2717,12 +2722,12 @@
 }</t>
         </is>
       </c>
-      <c r="E12" s="8" t="inlineStr">
+      <c r="E12" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F12" s="8" t="inlineStr">
+      <c r="F12" s="9" t="inlineStr">
         <is>
           <t>jszy_cookie</t>
         </is>
@@ -2752,7 +2757,7 @@
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="inlineStr">
+      <c r="B13" s="11" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/loan/add</t>
         </is>
@@ -2762,7 +2767,7 @@
           <t>添加放款</t>
         </is>
       </c>
-      <c r="D13" s="12" t="inlineStr">
+      <c r="D13" s="13" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -2784,12 +2789,12 @@
 }</t>
         </is>
       </c>
-      <c r="E13" s="8" t="inlineStr">
+      <c r="E13" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F13" s="8" t="inlineStr">
+      <c r="F13" s="9" t="inlineStr">
         <is>
           <t>zc_cookie</t>
         </is>
@@ -2840,6 +2845,1180 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="60.1111111111111" customWidth="1" style="1" min="2" max="2"/>
+    <col width="20.5555555555556" customWidth="1" style="1" min="3" max="3"/>
+    <col width="56.5555555555556" customWidth="1" style="1" min="4" max="4"/>
+    <col width="37.5555555555556" customWidth="1" style="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>tittle</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>headers</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>role_cookie</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>assert_info</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>conf_done</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="144" customHeight="1" s="1">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>https://pre.yunjinji.cn/commission/app/pretrade/report/add</t>
+        </is>
+      </c>
+      <c r="C2" s="14" t="inlineStr">
+        <is>
+          <t>生成报备单</t>
+        </is>
+      </c>
+      <c r="D2" s="9" t="inlineStr">
+        <is>
+          <t>{"cityId":306,"platformId":${salePlatformId},"system":"android","model":"phone","appId":"commission","uid":"${zc_userid}","departmentId":${salePlatformId},"salePlatformId":${agent_salePlatformId},"projectId":${projectId},"deptId":4807,"agentId":"86d50b0e8aa045068e8755b7eb62a6cb","customName":"${customName}","mobileType":"1","customMobile":"169****8888","sex":1,"numPeople":3,"source":1,"reportTime":"${reportTime}","hasVisit":1,"visitTime":"${visitTime}","visitProof":[],"planVisitDate":"","remark":"提交报备1"}</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="inlineStr">
+        <is>
+          <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="inlineStr">
+        <is>
+          <t>zc_cookie</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="190" customHeight="1" s="1">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>https://pre.yunjinji.cn/commission/app/trade/purchase/first/submit</t>
+        </is>
+      </c>
+      <c r="C3" s="14" t="inlineStr">
+        <is>
+          <t>录入认购单</t>
+        </is>
+      </c>
+      <c r="D3" s="13" t="inlineStr">
+        <is>
+          <t>{
+    "cityId":306,
+    "platformId":${salePlatformId},
+    "system":"android",
+    "model":"phone",
+    "appId":"commission",
+    "uid":"${zcjl_userid}",
+    "departmentId":${salePlatformId},
+    "reportId":"${reportID}",
+    "additionEnroll":0,
+    "customName":"${customName}",
+    "customPhone":"13729112152",
+    "voucherId":"",
+    "purchaseDate":"${purchaseDate}",
+    "roomNo":"${roomNo}",
+    "roomArea":"104.00",
+    "originalPrice":1040000,
+    "purchasePrice":1050000,
+    "signPrice":1060000,
+    "paymentMethod":"2",
+    "groupbuy":1,
+    "groupbuyPlanId":${groupbuyPlanId},"ignoreSameRoomNo":false,
+    "receivableGroupbuy":40000,
+    "receiveGroupbuy":40000,
+    "groupbuyProof":[
+        {
+            "url":"https://picos.wyzfang.com/pre/java/2022-2/599dae3c07fb416cbb55c63cb4f368de.jpeg",
+            "name":"599dae3c07fb416cbb55c63cb4f368de.jpeg"
+        }
+    ],
+    "payCommPlanId":${pay_id},
+    "purchaseProof":[
+        {
+            "url":"https://picos.wyzfang.com/pre/java/2022-2/cb86f751782446cd8aeb18fa8cc5c15c.jpeg",
+            "name":"cb86f751782446cd8aeb18fa8cc5c15c.jpeg"
+        }
+    ],
+    "remark":"调接口生成认购单"
+}</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>zcjl_cookie</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>{'code': 2000, 'data': {'actualPayCommission': None, 'additionEnroll': 0, 'agencyTrade': 'PROJECT_AGENCY_TRADE', 'agentId': '86d50b0e8aa045068e8755b7eb62a6cb', 'agentStatus': None, 'changeHouseDate': None, 'changeHouseProof': [], 'collectingCompanyId': None, 'commProjectId': 68, 'costs': None, 'createBy': '3f232aa91d334502aea0d9424d01481b', 'createTime': '2022-03-13 11:21:41', 'currentPayableActualCommission': None, 'customerId': 38568, 'customerName': '华发四季313栋业主112', 'customerPhone': '13729112152', 'departmentId': 4807, 'departmentName': '北京日益通速递有限责任公司2222', 'dissent': None, 'divisionId': 40, 'divisionName': '测试部', 'exchangeOrder': False, 'finalAuditApproved': False, 'grossProfit': None, 'groupbuy': 1, 'groupbuyPayer': None, 'groupbuyPlanId': 10, 'groupbuyProof': [{'name': '599dae3c07fb416cbb55c63cb4f368de.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/599dae3c07fb416cbb55c63cb4f368de.jpeg'}], 'groupbuyRecieveDate': None, 'groupbuyRecieveId': None, 'groupbuyRecieveProof': [], 'groupbuyStatus': None, 'initialSignDate': None, 'initialSignProof': [], 'loanDate': None, 'loanProof': [], 'netProfits': None, 'netSignDate': None, 'netSignProof': [], 'normalStat': True, 'notAgencyTrade': False, 'originId': 0, 'originalPrice': 1040000, 'pay': None, 'payAdjustCommission': None, 'payAdjustMoney': None, 'payCaseDesc': None, 'payCaseDescribe': '平台/门店结佣方案', 'payCommPlanId': 206, 'payPlanId': None, 'payStatus': None, 'payableCommission': 83000.0, 'payableCommissionProof': [], 'payableMoney': None, 'payedCommission': None, 'paymentMethod': 2, 'paymentMethodDesc': '按揭付款', 'platformDeptName': '惠州云经纪', 'platformId': 999, 'platformPayAdjustCommission': None, 'platformPayCaseDescribe': None, 'platformPayCommPlanId': None, 'platformPayableCommission': None, 'platformPayableCommissionProof': [], 'prepay': 0, 'prepayCommission': None, 'projectAgencyOrder': True, 'projectAgencyTrade': True, 'projectId': 31, 'projectName': '华发四季1', 'projectPlatformId': 999, 'projectPlatformName': '中山云经纪', 'purchaseCode': 'RG2022031333235480', 'purchaseDate': '2022-03-12', 'purchaseOrderType': 'NORMAL', 'purchasePrice': 1050000, 'purchaseProof': [{'name': 'cb86f751782446cd8aeb18fa8cc5c15c.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/cb86f751782446cd8aeb18fa8cc5c15c.jpeg'}], 'reAdjustCommision': None, 'realReceiveGroupbuy': 0, 'recCaseDescribe': None, 'recCommPlanId': None, 'recStatus': None, 'recStatusDesc': None, 'receivableCommision': 0, 'receivableCommissionProof': [], 'receivableGroupbuy': 40000, 'receiveGroupbuy': 40000, 'receivedCommission': None, 'recheckApproved': None, 'remark': '调接口生成认购单', 'reportId': 44342, 'reportTime': '2022-03-12 12:41:00', 'returnHouseDate': None, 'returnHouseProof': [], 'returnOrChangeStage': False, 'revenue': None, 'roomArea': '104.00', 'roomNo': '华发四季313栋112', 'saleAgencyTrade': False, 'salePlatformId': 5109, 'salePlatformName': '惠州云经纪', 'salePlatformOrDepartment': '北京日益通速递有限责任公司2222', 'salePlatformOrDepartmentId': -4807, 'salePurchaseOrderId': 0, 'saleRecCommPlanId': None, 'settlePrice': 1060000, 'settlePriceProof': [], 'signPrice': 1060000, 'stage': 3, 'stageDesc': '认购', 'stageFromStatus': 3, 'stageState': None, 'status': 2, 'statusDesc': '认购初审中', 'totalReceivableCommission': 0, 'tradeConfirmDate': None, 'tradeId': 2974, 'unPayedCommission': None, 'unReceivedCommission': None, 'updateBy': '3f232aa91d334502aea0d9424d01481b', 'updateTime': '2022-03-13 11:21:41', 'validRecCommPlanId': None, 'visitTime': '2022-03-12 12:42:00', 'voucherDepartmentPay': None, 'voucherId': None, 'voucherPay': None}, 'msg': 'SUCCESS'}</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="226" customHeight="1" s="1">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>https://pre.yunjinji.cn/commission/app/trade/first/approve</t>
+        </is>
+      </c>
+      <c r="C4" s="15" t="inlineStr">
+        <is>
+          <t>认购初审通过</t>
+        </is>
+      </c>
+      <c r="D4" s="13" t="inlineStr">
+        <is>
+          <t>{
+    "cityId":306,
+    "platformId":${salePlatformId},
+    "system":"android",
+    "model":"phone",
+    "appId":"commission",
+    "uid":"${zcjl_userid}",
+    "departmentId":${salePlatformId},
+    "tradeId":"${tradeId}",
+    "remark":"脚本初审通过",
+    "adjustStands":{
+        "adjustStandslog":{
+            "after":[
+                {
+                    "cutAmount":0,
+                    "divisionName":"测试部",
+                    "number":1,
+                    "payedCut":0,
+                    "ratio":0.5,
+                    "userId":"3f232aa91d334502aea0d9424d01481b",
+                    "userName":"驻场经理real"
+                },
+                {
+                    "cutAmount":0,
+                    "divisionName":"测试部",
+                    "number":2,
+                    "payedCut":0,
+                    "ratio":0.3,
+                    "userId":"055c509d3c1b4c2ebf2bc70fe8447e67",
+                    "userName":"驻场real"
+                },
+                {
+                    "cutAmount":0,
+                    "divisionName":"APP推送测试",
+                    "number":3,
+                    "payedCut":0,
+                    "ratio":0.1,
+                    "userId":"729e2f29f8a74724a6baa03f22991e45",
+                    "userName":"驻场经理1"
+                }
+            ],
+            "before":[
+                {
+                    "cutAmount":0,
+                    "divisionName":"测试部",
+                    "number":1,
+                    "payedCut":0,
+                    "ratio":"0.5",
+                    "userId":"3f232aa91d334502aea0d9424d01481b",
+                    "userName":"驻场经理real"
+                },
+                {
+                    "cutAmount":0,
+                    "divisionName":"测试部",
+                    "number":2,
+                    "payedCut":0,
+                    "ratio":"0.3",
+                    "userId":"055c509d3c1b4c2ebf2bc70fe8447e67",
+                    "userName":"驻场real"
+                },
+                {
+                    "cutAmount":0,
+                    "divisionName":"APP推送测试",
+                    "number":3,
+                    "payedCut":0,
+                    "ratio":"0.1",
+                    "userId":"729e2f29f8a74724a6baa03f22991e45",
+                    "userName":"驻场经理1"
+                }
+            ]
+        },
+        "adjustStandsCmd":{
+            "orderId":"${tradeId}",
+            "proofs":[
+            ],
+            "standRatioDtos":[
+                {
+                    "cutAmount":0,
+                    "divisionName":"测试部",
+                    "number":1,
+                    "payedCut":0,
+                    "ratio":0.5,
+                    "userId":"3f232aa91d334502aea0d9424d01481b",
+                    "userName":"驻场经理real"
+                },
+                {
+                    "cutAmount":0,
+                    "divisionName":"测试部",
+                    "number":2,
+                    "payedCut":0,
+                    "ratio":0.3,
+                    "userId":"055c509d3c1b4c2ebf2bc70fe8447e67",
+                    "userName":"驻场real"
+                },
+                {
+                    "cutAmount":0,
+                    "divisionName":"APP推送测试",
+                    "number":3,
+                    "payedCut":0,
+                    "ratio":0.1,
+                    "userId":"729e2f29f8a74724a6baa03f22991e45",
+                    "userName":"驻场经理1"
+                }
+            ]
+        }
+    }
+}</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
+        </is>
+      </c>
+      <c r="F4" s="9" t="inlineStr">
+        <is>
+          <t>zcjl_cookie</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="185" customHeight="1" s="1">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>https://pre.yunjinji.cn/commission/app/trade/groupBuy/approve</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>团购审核通过</t>
+        </is>
+      </c>
+      <c r="D5" s="13" t="inlineStr">
+        <is>
+          <t>{
+    "cityId":306,
+    "platformId":${salePlatformId},
+    "system":"android",
+    "model":"phone",
+    "appId":"commission",
+    "uid":"${cw_userid}",
+    "departmentId":${salePlatformId},
+    "tradeId":"${tradeId}",
+    "groupbuyPayer":"${account_name}",
+    "groupbuyRecieveId":${account_id},
+    "groupbuyRecieveDate":"${purchaseDate}",
+    "groupbuyRecieveProof":[
+        {
+            "url":"https://picos.wyzfang.com/pre/java/2022-2/1f9ca9905538470683d3a3f2c42b403f.jpeg",
+            "name":"1f9ca9905538470683d3a3f2c42b403f.jpeg"
+        }
+    ],
+    "remark":"脚本团购审核通过"
+}</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="inlineStr">
+        <is>
+          <t>cw_cookie</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="119" customHeight="1" s="1">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>https://pre.yunjinji.cn/commission/app/trade/recheck/approve</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>认购复审通过</t>
+        </is>
+      </c>
+      <c r="D6" s="13" t="inlineStr">
+        <is>
+          <t>{
+    "cityId":306,
+    "platformId":${salePlatformId},
+    "system":"android",
+    "model":"phone",
+    "appId":"commission",
+    "uid":"${jszy_userid}",
+    "departmentId":${salePlatformId},
+    "settlePrice":1010000,
+    "remark":"",
+    "recCommPlanId":${rec_id},
+    "payCaseDescribe":"门店结佣方案",
+    "payCommPlanId":${pay_id},
+    "platformPayCaseDescribe":"平台结佣结佣方案",
+    "platformPayCommPlanId":${pay_id},
+    "tradeId":"${tradeId}"
+}</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="inlineStr">
+        <is>
+          <t>jszy_cookie</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="135" customHeight="1" s="1">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="inlineStr">
+        <is>
+          <t>https://pre.yunjinji.cn/commission/app/trade/expand/audit</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>拓展审核通过</t>
+        </is>
+      </c>
+      <c r="D7" s="13" t="inlineStr">
+        <is>
+          <t>{
+    "cityId":306,
+    "platformId":${salePlatformId},
+    "system":"android",
+    "model":"phone",
+    "appId":"commission",
+    "uid":"${xftz_userid}",
+    "departmentId":${salePlatformId},
+    "dissent":0,
+    "remark":"无异议",
+    "tradeId":"${tradeId}"
+}</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
+        </is>
+      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>xftz_cookie</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="150" customHeight="1" s="1">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="inlineStr">
+        <is>
+          <t>https://pre.yunjinji.cn/commission/app/trade/finalCheck/approve</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>终审通过</t>
+        </is>
+      </c>
+      <c r="D8" s="13" t="inlineStr">
+        <is>
+          <t>{
+    "cityId":306,
+    "platformId":${salePlatformId},
+    "system":"android",
+    "model":"phone",
+    "appId":"commission",
+    "uid":"${jszz_userid}",
+    "departmentId":${salePlatformId},
+    "tradeId":"${tradeId}",
+    "costCmds":[
+    ],
+    "remark":"",
+    "adjustStandExpandCmd":{
+        "adjustCutStaffLog":{
+            "areaMgrAfter":{
+                "ratio":"1",
+                "userId":"64ad4fcbfdcb4bf48e33f38f4e31c4ce",
+                "userName":"区域总real"
+            },
+            "areaMgrBefore":{
+                "ratio":"1",
+                "userId":"64ad4fcbfdcb4bf48e33f38f4e31c4ce",
+                "userName":"区域总real"
+            },
+            "cutCase":"按计提金额计算",
+            "fixedAmount":"",
+            "standProofs":[
+            ],
+            "expandProofs":[
+            ],
+            "standAfter":[
+                {
+                    "ratio":"0.5",
+                    "userId":"3f232aa91d334502aea0d9424d01481b",
+                    "userName":"驻场经理real"
+                },
+                {
+                    "ratio":"0.3",
+                    "userId":"055c509d3c1b4c2ebf2bc70fe8447e67",
+                    "userName":"驻场real"
+                },
+                {
+                    "ratio":"0.1",
+                    "userId":"729e2f29f8a74724a6baa03f22991e45",
+                    "userName":"驻场经理1"
+                }
+            ],
+            "standBefore":[
+                {
+                    "ratio":"0.5",
+                    "userId":"3f232aa91d334502aea0d9424d01481b",
+                    "userName":"驻场经理real"
+                },
+                {
+                    "ratio":"0.3",
+                    "userId":"055c509d3c1b4c2ebf2bc70fe8447e67",
+                    "userName":"驻场real"
+                },
+                {
+                    "ratio":"0.1",
+                    "userId":"729e2f29f8a74724a6baa03f22991e45",
+                    "userName":"驻场经理1"
+                }
+            ],
+            "standMgrAfter":{
+                "ratio":"0.5",
+                "userId":"3f232aa91d334502aea0d9424d01481b",
+                "userName":"驻场经理real"
+            },
+            "standMgrBefore":{
+                "ratio":"0.5",
+                "userId":"3f232aa91d334502aea0d9424d01481b",
+                "userName":"驻场经理real"
+            },
+            "expandAfter":[
+                {
+                    "expandDirectorUser":{
+                        "ratio":null,
+                        "userId":null,
+                        "userName":null
+                    },
+                    "expandMgrUser":{
+                        "ratio":null,
+                        "userId":null,
+                        "userName":null
+                    },
+                    "expandUser":{
+                        "ratio":null,
+                        "userId":null,
+                        "userName":null
+                    }
+                },
+                {
+                    "expandDirectorUser":{
+                        "ratio":null,
+                        "userId":null,
+                        "userName":null
+                    },
+                    "expandMgrUser":{
+                        "ratio":null,
+                        "userId":null,
+                        "userName":null
+                    },
+                    "expandUser":{
+                        "ratio":null,
+                        "userId":null,
+                        "userName":null
+                    }
+                },
+                {
+                    "expandDirectorUser":{
+                        "ratio":null,
+                        "userId":null,
+                        "userName":null
+                    },
+                    "expandMgrUser":{
+                        "ratio":null,
+                        "userId":null,
+                        "userName":null
+                    },
+                    "expandUser":{
+                        "ratio":null,
+                        "userId":null,
+                        "userName":null
+                    }
+                }
+            ],
+            "expandBefore":[
+                {
+                    "expandDirectorUser":{
+                        "ratio":null,
+                        "userId":null,
+                        "userName":null
+                    },
+                    "expandMgrUser":{
+                        "ratio":null,
+                        "userId":null,
+                        "userName":null
+                    },
+                    "expandUser":{
+                        "ratio":null,
+                        "userId":null,
+                        "userName":null
+                    }
+                },
+                {
+                    "expandDirectorUser":{
+                        "ratio":null,
+                        "userId":null,
+                        "userName":null
+                    },
+                    "expandMgrUser":{
+                        "ratio":null,
+                        "userId":null,
+                        "userName":null
+                    },
+                    "expandUser":{
+                        "ratio":null,
+                        "userId":null,
+                        "userName":null
+                    }
+                },
+                {
+                    "expandDirectorUser":{
+                        "ratio":null,
+                        "userId":null,
+                        "userName":null
+                    },
+                    "expandMgrUser":{
+                        "ratio":null,
+                        "userId":null,
+                        "userName":null
+                    },
+                    "expandUser":{
+                        "ratio":null,
+                        "userId":null,
+                        "userName":null
+                    }
+                }
+            ]
+        },
+        "adjustStandsCmd":{
+            "areaManagerId":"64ad4fcbfdcb4bf48e33f38f4e31c4ce",
+            "fixedAmount":"",
+            "orderId":${tradeId},
+            "proofs":[
+            ],
+            "standCutCaseType":1,
+            "standManagerId":"3f232aa91d334502aea0d9424d01481b",
+            "standRatioDtos":[
+                {
+                    "cutAmount":0,
+                    "divisionName":"测试部",
+                    "number":1,
+                    "payedCut":0,
+                    "ratio":0.5,
+                    "userId":"3f232aa91d334502aea0d9424d01481b",
+                    "userName":"驻场经理real"
+                },
+                {
+                    "cutAmount":0,
+                    "divisionName":"测试部",
+                    "number":2,
+                    "payedCut":0,
+                    "ratio":0.3,
+                    "userId":"055c509d3c1b4c2ebf2bc70fe8447e67",
+                    "userName":"驻场real"
+                },
+                {
+                    "cutAmount":0,
+                    "divisionName":"APP推送测试",
+                    "number":3,
+                    "payedCut":0,
+                    "ratio":0.1,
+                    "userId":"729e2f29f8a74724a6baa03f22991e45",
+                    "userName":"驻场经理1"
+                }
+            ]
+        }
+    }
+}</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>jszz_cookie</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="81" customHeight="1" s="1">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="inlineStr">
+        <is>
+          <t>https://pre.yunjinji.cn/commission/app/trade/initialSign/edit</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>添加草签</t>
+        </is>
+      </c>
+      <c r="D9" s="13" t="inlineStr">
+        <is>
+          <t>{
+    "cityId":306,
+    "platformId":${salePlatformId},
+    "system":"android",
+    "model":"phone",
+    "appId":"commission",
+    "uid":"${zc_userid}",
+    "departmentId":${salePlatformId},
+    "tradeId":${tradeId},
+    "remark":"脚本添加草签",
+    "signPrice":"2000000",
+    "initialSignDate":"${purchaseDate}",
+    "initialSignProof":[
+        {
+            "url":"https://picos.wyzfang.com/pre/java/2022-2/e67b750086bc45be872ad12744955f29.jpeg",
+            "name":"e67b750086bc45be872ad12744955f29.jpeg"
+        }
+    ]
+}</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>zc_cookie</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="77" customHeight="1" s="1">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="inlineStr">
+        <is>
+          <t>https://pre.yunjinji.cn/commission/app/trade/initialSign/approve</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>草签审核通过</t>
+        </is>
+      </c>
+      <c r="D10" s="13" t="inlineStr">
+        <is>
+          <t>{
+    "cityId":306,
+    "platformId":${salePlatformId},
+    "system":"android",
+    "model":"phone",
+    "appId":"commission",
+    "uid":"${jszy_userid}",
+    "departmentId":${salePlatformId},
+    "tradeId":${tradeId},
+    "remark":"脚本草签审核通过",
+    "settlePrice":2000000
+}</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>jszy_cookie</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="213" customHeight="1" s="1">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="inlineStr">
+        <is>
+          <t>https://pre.yunjinji.cn/commission/app/trade/netSign/edit</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>添加网签</t>
+        </is>
+      </c>
+      <c r="D11" s="13" t="inlineStr">
+        <is>
+          <t>{
+    "cityId":306,
+    "platformId":${salePlatformId},
+    "system":"android",
+    "model":"phone",
+    "appId":"commission",
+    "uid":"${zc_userid}",
+    "departmentId":${salePlatformId},
+    "tradeId":${tradeId},
+    "remark":"脚本添加网签",
+    "netSignDate":"${purchaseDate}",
+    "netSignProof":[
+        {
+            "url":"https://picos.wyzfang.com/pre/java/2022-2/d603a43b77de47a9ae074937cfbfc5f2.jpeg",
+            "name":"d603a43b77de47a9ae074937cfbfc5f2.jpeg"
+        }
+    ]
+}</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
+        </is>
+      </c>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>zc_cookie</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="213" customHeight="1" s="1">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t>https://pre.yunjinji.cn/commission/app/trade/netSign/approve</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>网签审核通过</t>
+        </is>
+      </c>
+      <c r="D12" s="13" t="inlineStr">
+        <is>
+          <t>{
+    "cityId":306,
+    "platformId":${salePlatformId},
+    "system":"android",
+    "model":"phone",
+    "appId":"commission",
+    "uid":"${jszy_userid}",
+    "departmentId":${salePlatformId},
+    "tradeId":${tradeId},
+    "remark":"脚本网签审核通过"
+}</t>
+        </is>
+      </c>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>jszy_cookie</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="209" customHeight="1" s="1">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="inlineStr">
+        <is>
+          <t>https://pre.yunjinji.cn/commission/app/trade/loan/add</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>添加放款</t>
+        </is>
+      </c>
+      <c r="D13" s="13" t="inlineStr">
+        <is>
+          <t>{
+    "cityId":306,
+    "platformId":${salePlatformId},
+    "system":"android",
+    "model":"phone",
+    "appId":"commission",
+    "uid":"${zc_userid}",
+    "departmentId":${salePlatformId},
+    "tradeId":${tradeId},
+    "remark":"脚本添加放款",
+    "loanDate":"${purchaseDate}",
+    "loanProof":[
+        {
+            "url":"https://picos.wyzfang.com/pre/java/2022-2/8af3efbdc2634f05ac918052ac1ee34b.jpeg",
+            "name":"8af3efbdc2634f05ac918052ac1ee34b.jpeg"
+        }
+    ]
+}</t>
+        </is>
+      </c>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
+        </is>
+      </c>
+      <c r="F13" s="9" t="inlineStr">
+        <is>
+          <t>zc_cookie</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" tooltip="https://pre.yunjinji.cn/commission/app/pretrade/report/add" display="https://pre.yunjinji.cn/commission/app/pretrade/report/add" r:id="rId1"/>
+    <hyperlink ref="B3" tooltip="https://pre.yunjinji.cn/commission/app/trade/purchase/first/submit" display="https://pre.yunjinji.cn/commission/app/trade/purchase/first/submit" r:id="rId2"/>
+    <hyperlink ref="B4" display="https://pre.yunjinji.cn/commission/app/trade/first/approve" r:id="rId3"/>
+    <hyperlink ref="B5" tooltip="https://pre.yunjinji.cn/commission/app/trade/groupBuy/approve" display="https://pre.yunjinji.cn/commission/app/trade/groupBuy/approve" r:id="rId4"/>
+    <hyperlink ref="B6" tooltip="https://pre.yunjinji.cn/commission/app/trade/recheck/approve" display="https://pre.yunjinji.cn/commission/app/trade/recheck/approve" r:id="rId5"/>
+    <hyperlink ref="B7" tooltip="https://pre.yunjinji.cn/commission/app/trade/expand/audit" display="https://pre.yunjinji.cn/commission/app/trade/expand/audit" r:id="rId6"/>
+    <hyperlink ref="B8" tooltip="https://pre.yunjinji.cn/commission/app/trade/finalCheck/approve" display="https://pre.yunjinji.cn/commission/app/trade/finalCheck/approve" r:id="rId7"/>
+    <hyperlink ref="B9" tooltip="https://pre.yunjinji.cn/commission/app/trade/initialSign/edit" display="https://pre.yunjinji.cn/commission/app/trade/initialSign/edit" r:id="rId8"/>
+    <hyperlink ref="B10" tooltip="https://pre.yunjinji.cn/commission/app/trade/initialSign/approve" display="https://pre.yunjinji.cn/commission/app/trade/initialSign/approve" r:id="rId9"/>
+    <hyperlink ref="B11" tooltip="https://pre.yunjinji.cn/commission/app/trade/netSign/edit" display="https://pre.yunjinji.cn/commission/app/trade/netSign/edit" r:id="rId10"/>
+    <hyperlink ref="B12" tooltip="https://pre.yunjinji.cn/commission/app/trade/netSign/approve" display="https://pre.yunjinji.cn/commission/app/trade/netSign/approve" r:id="rId11"/>
+    <hyperlink ref="B13" tooltip="https://pre.yunjinji.cn/commission/app/trade/loan/add" display="https://pre.yunjinji.cn/commission/app/trade/loan/add" r:id="rId12"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -2914,7 +4093,7 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/receive/commission/ticket/manual/create</t>
         </is>
@@ -2924,7 +4103,7 @@
           <t>创建收佣单</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="D2" s="9" t="inlineStr">
         <is>
           <t>{
     "checkClerkId":"${jszy_userid}",
@@ -2953,12 +4132,12 @@
 }</t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
+      <c r="E2" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F2" s="11" t="inlineStr">
+      <c r="F2" s="12" t="inlineStr">
         <is>
           <t>jszy_cookie</t>
         </is>
@@ -2988,7 +4167,7 @@
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="11" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/receive/commission/ticket/confirm</t>
         </is>
@@ -2998,7 +4177,7 @@
           <t>项目对佣中审核通过</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
         <is>
           <t>{
     "ticketId":"${rec_ticketId}",
@@ -3022,12 +4201,12 @@
 }</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F3" s="11" t="inlineStr">
+      <c r="F3" s="12" t="inlineStr">
         <is>
           <t>jszy_cookie</t>
         </is>
@@ -3057,7 +4236,7 @@
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="11" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/receive/commission/ticket/adjust</t>
         </is>
@@ -3067,7 +4246,7 @@
           <t>对佣调整中审核通过</t>
         </is>
       </c>
-      <c r="D4" s="12" t="inlineStr">
+      <c r="D4" s="13" t="inlineStr">
         <is>
           <t>{
     "adjustOrders":false,
@@ -3096,12 +4275,12 @@
 }</t>
         </is>
       </c>
-      <c r="E4" s="8" t="inlineStr">
+      <c r="E4" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F4" s="11" t="inlineStr">
+      <c r="F4" s="12" t="inlineStr">
         <is>
           <t>jszy_cookie</t>
         </is>
@@ -3131,7 +4310,7 @@
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="11" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/receive/commission/ticket/invoice/apply</t>
         </is>
@@ -3141,7 +4320,7 @@
           <t>待申请开票</t>
         </is>
       </c>
-      <c r="D5" s="12" t="inlineStr">
+      <c r="D5" s="13" t="inlineStr">
         <is>
           <t>{
     "ticketId":"${rec_ticketId}",
@@ -3175,12 +4354,12 @@
 }</t>
         </is>
       </c>
-      <c r="E5" s="8" t="inlineStr">
+      <c r="E5" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F5" s="11" t="inlineStr">
+      <c r="F5" s="12" t="inlineStr">
         <is>
           <t>jszy_cookie</t>
         </is>
@@ -3210,7 +4389,7 @@
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="11" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/receive/commission/ticket/invoice/send</t>
         </is>
@@ -3220,7 +4399,7 @@
           <t>确认开票</t>
         </is>
       </c>
-      <c r="D6" s="12" t="inlineStr">
+      <c r="D6" s="13" t="inlineStr">
         <is>
           <t>{
     "ticketId":"${rec_ticketId}",
@@ -3241,12 +4420,12 @@
 }</t>
         </is>
       </c>
-      <c r="E6" s="8" t="inlineStr">
+      <c r="E6" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F6" s="11" t="inlineStr">
+      <c r="F6" s="12" t="inlineStr">
         <is>
           <t>cw_cookie</t>
         </is>
@@ -3276,7 +4455,7 @@
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="11" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/receive/commission/ticket/invoice/received</t>
         </is>
@@ -3286,7 +4465,7 @@
           <t>收票</t>
         </is>
       </c>
-      <c r="D7" s="12" t="inlineStr">
+      <c r="D7" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 {
@@ -3306,12 +4485,12 @@
 }</t>
         </is>
       </c>
-      <c r="E7" s="8" t="inlineStr">
+      <c r="E7" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F7" s="11" t="inlineStr">
+      <c r="F7" s="12" t="inlineStr">
         <is>
           <t>jszy_cookie</t>
         </is>
@@ -3341,7 +4520,7 @@
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/receive/commission/ticket/commissions/recieved</t>
         </is>
@@ -3351,7 +4530,7 @@
           <t>收款中</t>
         </is>
       </c>
-      <c r="D8" s="12" t="inlineStr">
+      <c r="D8" s="13" t="inlineStr">
         <is>
           <t>{
     "ticketId":"${rec_ticketId}",
@@ -3372,7 +4551,7 @@
 }</t>
         </is>
       </c>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="E8" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
@@ -3417,7 +4596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3425,15 +4604,15 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col width="82" customWidth="1" style="1" min="2" max="2"/>
     <col width="20.5555555555556" customWidth="1" style="4" min="3" max="3"/>
-    <col width="106.333333333333" customWidth="1" style="8" min="4" max="4"/>
+    <col width="106.333333333333" customWidth="1" style="9" min="4" max="4"/>
     <col width="34.2222222222222" customWidth="1" style="1" min="5" max="5"/>
     <col width="13.6666666666667" customWidth="1" style="1" min="6" max="6"/>
     <col width="11.6666666666667" customWidth="1" style="1" min="7" max="7"/>
@@ -3497,7 +4676,7 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/manual/create</t>
         </is>
@@ -3507,7 +4686,7 @@
           <t>创建结佣单</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="D2" s="9" t="inlineStr">
         <is>
           <t>{
     "deptId":4807,
@@ -3546,12 +4725,12 @@
 }</t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
+      <c r="E2" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="F2" s="9" t="inlineStr">
         <is>
           <t>jszy_cookie</t>
         </is>
@@ -3581,7 +4760,7 @@
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="11" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/start</t>
         </is>
@@ -3591,7 +4770,7 @@
           <t>开始结佣</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
         <is>
           <t>{
     "ticketId":"${pay_ticketId}",
@@ -3603,12 +4782,12 @@
 }</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>jszz_cookie</t>
         </is>
@@ -3638,7 +4817,7 @@
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="11" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/check/done</t>
         </is>
@@ -3648,7 +4827,7 @@
           <t>对佣中提交</t>
         </is>
       </c>
-      <c r="D4" s="8" t="inlineStr">
+      <c r="D4" s="9" t="inlineStr">
         <is>
           <t>{
     "adjustOrders":false,
@@ -3687,12 +4866,12 @@
 }</t>
         </is>
       </c>
-      <c r="E4" s="8" t="inlineStr">
+      <c r="E4" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
+      <c r="F4" s="9" t="inlineStr">
         <is>
           <t>jszy_cookie</t>
         </is>
@@ -3722,7 +4901,7 @@
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="11" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/invoice/recieved</t>
         </is>
@@ -3732,7 +4911,7 @@
           <t>确认收票</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
+      <c r="D5" s="9" t="inlineStr">
         <is>
           <t>{
     "ticketId":"${pay_ticketId}",
@@ -3753,12 +4932,12 @@
 }</t>
         </is>
       </c>
-      <c r="E5" s="8" t="inlineStr">
+      <c r="E5" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F5" s="8" t="inlineStr">
+      <c r="F5" s="9" t="inlineStr">
         <is>
           <t>cw_cookie</t>
         </is>
@@ -3788,7 +4967,7 @@
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="11" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/payed</t>
         </is>
@@ -3798,7 +4977,7 @@
           <t>完成收款</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>{
     "ticketId":"${pay_ticketId}",
@@ -3818,12 +4997,12 @@
 }</t>
         </is>
       </c>
-      <c r="E6" s="8" t="inlineStr">
+      <c r="E6" s="9" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F6" s="8" t="inlineStr">
+      <c r="F6" s="9" t="inlineStr">
         <is>
           <t>cw_cookie</t>
         </is>
@@ -3838,12 +5017,12 @@
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6" s="0" t="inlineStr">
         <is>
           <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="0" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -3861,16 +5040,458 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <cols>
+    <col width="102.666666666667" customWidth="1" style="1" min="2" max="2"/>
+    <col width="33.3333333333333" customWidth="1" style="1" min="3" max="3"/>
+    <col width="68.7777777777778" customWidth="1" style="1" min="4" max="4"/>
+    <col width="30" customWidth="1" style="1" min="5" max="5"/>
+    <col width="19.3333333333333" customWidth="1" style="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>tittle</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>headers</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>role_cookie</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>assert_info</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>conf_done</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="147" customHeight="1" s="1">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/platform/manual/create</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>创建结佣单</t>
+        </is>
+      </c>
+      <c r="D2" s="9" t="inlineStr">
+        <is>
+          <t>{
+    "deptId":"",
+    "settleClerkId":"${jszy_userid}",
+    "projectId":${projectId},
+    "totalCommission":"${payable_commission}",
+    "totalInvoice":"${payable_commission}",
+    "devAccountId":"",
+    "salePlatformAccountId":25,
+    "invoiceTaxRate":0.06,
+    "invoiceTitleId":6,
+    "invoiceType":"1",
+    "orders":[
+        {
+            "currentCanPayableCommission":"${payable_commission}",
+            "currentPayableActualCommission":"${payable_commission}",
+            "currentProvideInvoice":"${payable_commission}",
+            "currentShouldPayableCommission":"${payable_commission}",
+            "invoiceTaxFee":"0.00",
+            "orderId":${tradeId},
+            "payableCommission":"${payable_commission}",
+            "payedCommission":"0",
+            "receivableCommision":"${receivable_commision}",
+            "receivedCommision":"${receivable_commision}",
+            "unpayedCommission":"${payable_commission}",
+            "unreceivedCommision":"0"
+        }
+    ],
+    "payOrderRemark":"",
+    "remark":"测试提交结佣单",
+    "salePlatformId":${agent_salePlatformId},
+    "system":"pc",
+    "model":"pc",
+    "appId":"commission-pc",
+    "role":15,
+    "uid":"${jszy_userid}"
+}</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="inlineStr">
+        <is>
+          <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="inlineStr">
+        <is>
+          <t>jszy_cookie</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="115.2" customHeight="1" s="1">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/start</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>开始结佣</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>{
+    "ticketId":"${pay_ticketId}",
+    "system":"pc",
+    "model":"pc",
+    "appId":"commission-pc",
+    "role":14,
+    "uid":"${jszz_userid}"
+}</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>jszz_cookie</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="409.5" customHeight="1" s="1">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/check/done</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>对佣中提交</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>{
+    "adjustOrders":false,
+    "ticketId":"${pay_ticketId}",
+    "remark":"测试提交结佣单",
+    "deptId":null,
+    "projectId":${projectId},
+    "totalCommission":"${payable_commission}",
+    "totalInvoice":"${payable_commission}",
+    "devAccountId":null,
+    "salePlatformAccountId":25,
+    "invoiceTaxRate":0.06,
+    "invoiceTitleId":6,
+    "invoiceType":1,
+    "orders":[
+        {
+            "currentCanPayableCommission":"${payable_commission}",
+            "currentPayableActualCommission":"${payable_commission}",
+            "currentProvideInvoice":"${payable_commission}",
+            "currentShouldPayableCommission":"${payable_commission}",
+            "invoiceTaxFee":"0.00",
+            "orderId":"${tradeId}",
+            "payableCommission":"${payable_commission}",
+            "payedCommission":"0",
+            "receivableCommision":"${receivable_commision}",
+            "receivedCommision":"${receivable_commision}",
+            "unpayedCommission":"${payable_commission}",
+            "unreceivedCommision":"0"
+        }
+    ],
+    "system":"pc",
+    "model":"pc",
+    "appId":"commission-pc",
+    "role":15,
+    "uid":"c5c185f1efad466dad4bbfab4e02e745"
+}</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
+        </is>
+      </c>
+      <c r="F4" s="9" t="inlineStr">
+        <is>
+          <t>jszy_cookie</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="259.2" customHeight="1" s="1">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/invoice/recieved</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>确认收票</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t>{
+    "ticketId":"${pay_ticketId}",
+    "collectInvoiceProof":[
+        {
+            "name":"12123.jpg",
+            "url":"https://picos.wyzfang.com/test/server/2022-03/20220312/a302d8d4-ca7e-45ed-2b69-c39bef7e70d9.jpg"
+        }
+    ],
+    "remark":"测试",
+    "collectInvoiceDate":"${purchaseDate}",
+    "openInvoiceDate":"${purchaseDate}",
+    "system":"pc",
+    "model":"pc",
+    "appId":"commission-pc",
+    "role":16,
+    "uid":"${cw_userid}"
+}</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="inlineStr">
+        <is>
+          <t>cw_cookie</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="244.8" customHeight="1" s="1">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/payed</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>完成收款</t>
+        </is>
+      </c>
+      <c r="D6" s="9" t="inlineStr">
+        <is>
+          <t>{
+    "ticketId":"${pay_ticketId}",
+    "remark":"测试收款中",
+    "payProof":[
+        {
+            "name":"12123.jpg",
+            "url":"https://picos.wyzfang.com/test/server/2022-03/20220312/524660ab-1c01-2891-43ba-1a8a5003df7e.jpg"
+        }
+    ],
+    "payDate":"${purchaseDate}",
+    "system":"pc",
+    "model":"pc",
+    "appId":"commission-pc",
+    "role":16,
+    "uid":"${cw_userid}"
+}</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="inlineStr">
+        <is>
+          <t>cw_cookie</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" tooltip="https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/platform/manual/create" display="https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/platform/manual/create" r:id="rId1"/>
+    <hyperlink ref="B3" tooltip="https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/start" display="https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/start" r:id="rId2"/>
+    <hyperlink ref="B4" tooltip="https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/check/done" display="https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/check/done" r:id="rId3"/>
+    <hyperlink ref="B5" tooltip="https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/invoice/recieved" display="https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/invoice/recieved" r:id="rId4"/>
+    <hyperlink ref="B6" tooltip="https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/payed" display="https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/payed" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
@@ -3935,7 +5556,7 @@
       </c>
       <c r="E2" s="7" t="inlineStr">
         <is>
-          <t>7c7fecdc-fcf0-4cbf-bb89-6dbd7f7fd9ac</t>
+          <t>cf0b4d44-0ca7-4097-8332-8dd253abef6a</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
@@ -3965,7 +5586,7 @@
       </c>
       <c r="E3" s="7" t="inlineStr">
         <is>
-          <t>279fe326-e7a1-412c-8235-05c5ea5f728b</t>
+          <t>eb4fb687-2114-46c9-99a6-2116566305cc</t>
         </is>
       </c>
       <c r="F3" s="7" t="inlineStr">
@@ -3995,7 +5616,7 @@
       </c>
       <c r="E4" s="7" t="inlineStr">
         <is>
-          <t>efcb44ee-1d46-4bdf-8d12-f7779e116455</t>
+          <t>1ce75d03-0614-4f6f-9f4b-1ac6ada9d21c</t>
         </is>
       </c>
       <c r="F4" s="7" t="inlineStr">
@@ -4025,7 +5646,7 @@
       </c>
       <c r="E5" s="7" t="inlineStr">
         <is>
-          <t>f5a86ed0-c2a0-4230-ab6f-7c40997f4a93</t>
+          <t>07400f87-2a51-47d1-af25-c705105df15a</t>
         </is>
       </c>
       <c r="F5" s="7" t="inlineStr">
@@ -4055,7 +5676,7 @@
       </c>
       <c r="E6" s="7" t="inlineStr">
         <is>
-          <t>2b248b93-add8-4485-93c4-4f051d968373</t>
+          <t>fde4bcc3-46ce-43ef-8ccf-882a78f473ff</t>
         </is>
       </c>
       <c r="F6" s="7" t="inlineStr">
@@ -4085,7 +5706,7 @@
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>b881ab64-ea13-45cf-b6aa-c1f08669dab0</t>
+          <t>f77ca903-4fcd-4b3f-adee-54da259d4953</t>
         </is>
       </c>
       <c r="F7" s="7" t="inlineStr">
@@ -4115,7 +5736,7 @@
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>050b5638-daff-4ad5-904b-1fd19557527c</t>
+          <t>f829ff19-bd49-4d06-a8be-c90879752b05</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr">
@@ -4145,12 +5766,42 @@
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>825d386b-102d-4f4d-8d2f-50949d28e4b4</t>
+          <t>c4bf0236-3658-41f0-b628-667690dc0d15</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr">
         <is>
           <t>总经办</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>13600000006</v>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>xftz</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>021930aed2b34180a50921370bb3c1a5</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>xftz_cookie</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>bfe0e89d-b166-4cff-a4fa-075b3a23ae67</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr">
+        <is>
+          <t>销方拓展</t>
         </is>
       </c>
     </row>
@@ -4159,7 +5810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4167,8 +5818,8 @@
   </sheetPr>
   <dimension ref="B1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="C1 B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
@@ -4189,7 +5840,7 @@
         </is>
       </c>
       <c r="D1" s="0" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2">
@@ -4257,6 +5908,21 @@
       <c r="C7" s="2" t="inlineStr">
         <is>
           <t>2022-03-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>成交平台id</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>5109</v>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>成交平台为销方</t>
         </is>
       </c>
     </row>

--- a/test_data/test1.xlsx
+++ b/test_data/test1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22368" windowHeight="9420" tabRatio="705" firstSheet="1" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22368" windowHeight="9420" tabRatio="705" firstSheet="1" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -65,6 +65,28 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -79,23 +101,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -109,31 +115,16 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -150,28 +141,6 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -186,7 +155,38 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -206,7 +206,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,13 +242,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,19 +284,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,31 +344,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,55 +362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,31 +374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,21 +429,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -458,26 +443,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,10 +475,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -519,9 +493,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,10 +533,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -545,16 +545,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
@@ -566,116 +566,116 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -703,9 +703,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
@@ -1193,7 +1190,7 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/user-center/auth/staff/login</t>
         </is>
@@ -1228,7 +1225,7 @@
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/user-center/auth/staff/login</t>
         </is>
@@ -1263,7 +1260,7 @@
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/user-center/auth/staff/login</t>
         </is>
@@ -1298,7 +1295,7 @@
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/user-center/auth/staff/login</t>
         </is>
@@ -1408,7 +1405,7 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/user-center/auth/staff/login</t>
         </is>
@@ -1448,7 +1445,7 @@
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/user-center/auth/staff/login</t>
         </is>
@@ -1478,7 +1475,7 @@
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/user-center/auth/staff/login</t>
         </is>
@@ -1518,7 +1515,7 @@
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/user-center/auth/staff/login</t>
         </is>
@@ -1698,12 +1695,12 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/pretrade/report/add</t>
         </is>
       </c>
-      <c r="C2" s="14" t="inlineStr">
+      <c r="C2" s="13" t="inlineStr">
         <is>
           <t>生成报备单</t>
         </is>
@@ -1748,17 +1745,17 @@
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/purchase/first/submit</t>
         </is>
       </c>
-      <c r="C3" s="14" t="inlineStr">
+      <c r="C3" s="13" t="inlineStr">
         <is>
           <t>录入认购单</t>
         </is>
       </c>
-      <c r="D3" s="13" t="inlineStr">
+      <c r="D3" s="12" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -1836,17 +1833,17 @@
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/first/approve</t>
         </is>
       </c>
-      <c r="C4" s="15" t="inlineStr">
+      <c r="C4" s="14" t="inlineStr">
         <is>
           <t>认购初审通过</t>
         </is>
       </c>
-      <c r="D4" s="13" t="inlineStr">
+      <c r="D4" s="12" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -1992,7 +1989,7 @@
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/groupBuy/approve</t>
         </is>
@@ -2002,7 +1999,7 @@
           <t>团购审核通过</t>
         </is>
       </c>
-      <c r="D5" s="13" t="inlineStr">
+      <c r="D5" s="12" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -2061,7 +2058,7 @@
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="inlineStr">
+      <c r="B6" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/recheck/approve</t>
         </is>
@@ -2071,7 +2068,7 @@
           <t>认购复审通过</t>
         </is>
       </c>
-      <c r="D6" s="13" t="inlineStr">
+      <c r="D6" s="12" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -2125,7 +2122,7 @@
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="inlineStr">
+      <c r="B7" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/expand/audit</t>
         </is>
@@ -2135,7 +2132,7 @@
           <t>拓展审核通过</t>
         </is>
       </c>
-      <c r="D7" s="13" t="inlineStr">
+      <c r="D7" s="12" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -2186,7 +2183,7 @@
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/finalCheck/approve</t>
         </is>
@@ -2196,7 +2193,7 @@
           <t>终审通过</t>
         </is>
       </c>
-      <c r="D8" s="13" t="inlineStr">
+      <c r="D8" s="12" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -2501,7 +2498,7 @@
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="inlineStr">
+      <c r="B9" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/initialSign/edit</t>
         </is>
@@ -2511,7 +2508,7 @@
           <t>添加草签</t>
         </is>
       </c>
-      <c r="D9" s="13" t="inlineStr">
+      <c r="D9" s="12" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -2569,7 +2566,7 @@
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/initialSign/approve</t>
         </is>
@@ -2579,7 +2576,7 @@
           <t>草签审核通过</t>
         </is>
       </c>
-      <c r="D10" s="13" t="inlineStr">
+      <c r="D10" s="12" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -2630,7 +2627,7 @@
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="inlineStr">
+      <c r="B11" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/netSign/edit</t>
         </is>
@@ -2640,7 +2637,7 @@
           <t>添加网签</t>
         </is>
       </c>
-      <c r="D11" s="13" t="inlineStr">
+      <c r="D11" s="12" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -2697,7 +2694,7 @@
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/netSign/approve</t>
         </is>
@@ -2707,7 +2704,7 @@
           <t>网签审核通过</t>
         </is>
       </c>
-      <c r="D12" s="13" t="inlineStr">
+      <c r="D12" s="12" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -2757,7 +2754,7 @@
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="inlineStr">
+      <c r="B13" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/loan/add</t>
         </is>
@@ -2767,7 +2764,7 @@
           <t>添加放款</t>
         </is>
       </c>
-      <c r="D13" s="13" t="inlineStr">
+      <c r="D13" s="12" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -2915,12 +2912,12 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/pretrade/report/add</t>
         </is>
       </c>
-      <c r="C2" s="14" t="inlineStr">
+      <c r="C2" s="13" t="inlineStr">
         <is>
           <t>生成报备单</t>
         </is>
@@ -2965,17 +2962,17 @@
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/purchase/first/submit</t>
         </is>
       </c>
-      <c r="C3" s="14" t="inlineStr">
+      <c r="C3" s="13" t="inlineStr">
         <is>
           <t>录入认购单</t>
         </is>
       </c>
-      <c r="D3" s="13" t="inlineStr">
+      <c r="D3" s="12" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -3040,7 +3037,7 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': {'actualPayCommission': None, 'additionEnroll': 0, 'agencyTrade': 'PROJECT_AGENCY_TRADE', 'agentId': '86d50b0e8aa045068e8755b7eb62a6cb', 'agentStatus': None, 'changeHouseDate': None, 'changeHouseProof': [], 'collectingCompanyId': None, 'commProjectId': 68, 'costs': None, 'createBy': '3f232aa91d334502aea0d9424d01481b', 'createTime': '2022-03-13 11:21:41', 'currentPayableActualCommission': None, 'customerId': 38568, 'customerName': '华发四季313栋业主112', 'customerPhone': '13729112152', 'departmentId': 4807, 'departmentName': '北京日益通速递有限责任公司2222', 'dissent': None, 'divisionId': 40, 'divisionName': '测试部', 'exchangeOrder': False, 'finalAuditApproved': False, 'grossProfit': None, 'groupbuy': 1, 'groupbuyPayer': None, 'groupbuyPlanId': 10, 'groupbuyProof': [{'name': '599dae3c07fb416cbb55c63cb4f368de.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/599dae3c07fb416cbb55c63cb4f368de.jpeg'}], 'groupbuyRecieveDate': None, 'groupbuyRecieveId': None, 'groupbuyRecieveProof': [], 'groupbuyStatus': None, 'initialSignDate': None, 'initialSignProof': [], 'loanDate': None, 'loanProof': [], 'netProfits': None, 'netSignDate': None, 'netSignProof': [], 'normalStat': True, 'notAgencyTrade': False, 'originId': 0, 'originalPrice': 1040000, 'pay': None, 'payAdjustCommission': None, 'payAdjustMoney': None, 'payCaseDesc': None, 'payCaseDescribe': '平台/门店结佣方案', 'payCommPlanId': 206, 'payPlanId': None, 'payStatus': None, 'payableCommission': 83000.0, 'payableCommissionProof': [], 'payableMoney': None, 'payedCommission': None, 'paymentMethod': 2, 'paymentMethodDesc': '按揭付款', 'platformDeptName': '惠州云经纪', 'platformId': 999, 'platformPayAdjustCommission': None, 'platformPayCaseDescribe': None, 'platformPayCommPlanId': None, 'platformPayableCommission': None, 'platformPayableCommissionProof': [], 'prepay': 0, 'prepayCommission': None, 'projectAgencyOrder': True, 'projectAgencyTrade': True, 'projectId': 31, 'projectName': '华发四季1', 'projectPlatformId': 999, 'projectPlatformName': '中山云经纪', 'purchaseCode': 'RG2022031333235480', 'purchaseDate': '2022-03-12', 'purchaseOrderType': 'NORMAL', 'purchasePrice': 1050000, 'purchaseProof': [{'name': 'cb86f751782446cd8aeb18fa8cc5c15c.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/cb86f751782446cd8aeb18fa8cc5c15c.jpeg'}], 'reAdjustCommision': None, 'realReceiveGroupbuy': 0, 'recCaseDescribe': None, 'recCommPlanId': None, 'recStatus': None, 'recStatusDesc': None, 'receivableCommision': 0, 'receivableCommissionProof': [], 'receivableGroupbuy': 40000, 'receiveGroupbuy': 40000, 'receivedCommission': None, 'recheckApproved': None, 'remark': '调接口生成认购单', 'reportId': 44342, 'reportTime': '2022-03-12 12:41:00', 'returnHouseDate': None, 'returnHouseProof': [], 'returnOrChangeStage': False, 'revenue': None, 'roomArea': '104.00', 'roomNo': '华发四季313栋112', 'saleAgencyTrade': False, 'salePlatformId': 5109, 'salePlatformName': '惠州云经纪', 'salePlatformOrDepartment': '北京日益通速递有限责任公司2222', 'salePlatformOrDepartmentId': -4807, 'salePurchaseOrderId': 0, 'saleRecCommPlanId': None, 'settlePrice': 1060000, 'settlePriceProof': [], 'signPrice': 1060000, 'stage': 3, 'stageDesc': '认购', 'stageFromStatus': 3, 'stageState': None, 'status': 2, 'statusDesc': '认购初审中', 'totalReceivableCommission': 0, 'tradeConfirmDate': None, 'tradeId': 2974, 'unPayedCommission': None, 'unReceivedCommission': None, 'updateBy': '3f232aa91d334502aea0d9424d01481b', 'updateTime': '2022-03-13 11:21:41', 'validRecCommPlanId': None, 'visitTime': '2022-03-12 12:42:00', 'voucherDepartmentPay': None, 'voucherId': None, 'voucherPay': None}, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 2000, 'data': {'actualPayCommission': None, 'additionEnroll': 0, 'agencyTrade': 'PROJECT_AGENCY_TRADE', 'agentId': '86d50b0e8aa045068e8755b7eb62a6cb', 'agentStatus': None, 'changeHouseDate': None, 'changeHouseProof': [], 'collectingCompanyId': None, 'commProjectId': 68, 'costs': None, 'createBy': 'None', 'createTime': '2022-03-13 13:22:11', 'currentPayableActualCommission': None, 'customerId': 38580, 'customerName': '华发四季313栋业主117', 'customerPhone': '13729112152', 'departmentId': 4807, 'departmentName': '北京日益通速递有限责任公司2222', 'dissent': None, 'divisionId': 40, 'divisionName': '测试部', 'exchangeOrder': False, 'finalAuditApproved': False, 'grossProfit': None, 'groupbuy': 1, 'groupbuyPayer': None, 'groupbuyPlanId': 10, 'groupbuyProof': [{'name': '599dae3c07fb416cbb55c63cb4f368de.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/599dae3c07fb416cbb55c63cb4f368de.jpeg'}], 'groupbuyRecieveDate': None, 'groupbuyRecieveId': None, 'groupbuyRecieveProof': [], 'groupbuyStatus': None, 'initialSignDate': None, 'initialSignProof': [], 'loanDate': None, 'loanProof': [], 'netProfits': None, 'netSignDate': None, 'netSignProof': [], 'normalStat': True, 'notAgencyTrade': False, 'originId': 0, 'originalPrice': 1040000, 'pay': None, 'payAdjustCommission': None, 'payAdjustMoney': None, 'payCaseDesc': None, 'payCaseDescribe': '平台/门店结佣方案', 'payCommPlanId': 206, 'payPlanId': None, 'payStatus': None, 'payableCommission': 83000.0, 'payableCommissionProof': [], 'payableMoney': None, 'payedCommission': None, 'paymentMethod': 2, 'paymentMethodDesc': '按揭付款', 'platformDeptName': '惠州云经纪', 'platformId': 999, 'platformPayAdjustCommission': None, 'platformPayCaseDescribe': None, 'platformPayCommPlanId': None, 'platformPayableCommission': None, 'platformPayableCommissionProof': [], 'prepay': 0, 'prepayCommission': None, 'projectAgencyOrder': True, 'projectAgencyTrade': True, 'projectId': 31, 'projectName': '华发四季1', 'projectPlatformId': 999, 'projectPlatformName': '中山云经纪', 'purchaseCode': 'RG2022031337347864', 'purchaseDate': '2022-03-12', 'purchaseOrderType': 'NORMAL', 'purchasePrice': 1050000, 'purchaseProof': [{'name': 'cb86f751782446cd8aeb18fa8cc5c15c.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/cb86f751782446cd8aeb18fa8cc5c15c.jpeg'}], 'reAdjustCommision': None, 'realReceiveGroupbuy': 0, 'recCaseDescribe': None, 'recCommPlanId': None, 'recStatus': None, 'recStatusDesc': None, 'receivableCommision': 0, 'receivableCommissionProof': [], 'receivableGroupbuy': 40000, 'receiveGroupbuy': 40000, 'receivedCommission': None, 'recheckApproved': None, 'remark': '调接口生成认购单', 'reportId': 44348, 'reportTime': '2022-03-12 12:41:00', 'returnHouseDate': None, 'returnHouseProof': [], 'returnOrChangeStage': False, 'revenue': None, 'roomArea': '104.00', 'roomNo': '华发四季313栋117', 'saleAgencyTrade': False, 'salePlatformId': 5109, 'salePlatformName': '惠州云经纪', 'salePlatformOrDepartment': '北京日益通速递有限责任公司2222', 'salePlatformOrDepartmentId': -4807, 'salePurchaseOrderId': 0, 'saleRecCommPlanId': None, 'settlePrice': 1060000, 'settlePriceProof': [], 'signPrice': 1060000, 'stage': 3, 'stageDesc': '认购', 'stageFromStatus': 3, 'stageState': None, 'status': 2, 'statusDesc': '认购初审中', 'totalReceivableCommission': 0, 'tradeConfirmDate': None, 'tradeId': 2986, 'unPayedCommission': None, 'unReceivedCommission': None, 'updateBy': 'None', 'updateTime': '2022-03-13 13:22:11', 'validRecCommPlanId': None, 'visitTime': '2022-03-12 12:42:00', 'voucherDepartmentPay': None, 'voucherId': None, 'voucherPay': None}, 'msg': 'SUCCESS'}</t>
         </is>
       </c>
       <c r="J3" s="0" t="inlineStr">
@@ -3053,17 +3050,17 @@
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/first/approve</t>
         </is>
       </c>
-      <c r="C4" s="15" t="inlineStr">
+      <c r="C4" s="14" t="inlineStr">
         <is>
           <t>认购初审通过</t>
         </is>
       </c>
-      <c r="D4" s="13" t="inlineStr">
+      <c r="D4" s="12" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -3209,7 +3206,7 @@
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/groupBuy/approve</t>
         </is>
@@ -3219,7 +3216,7 @@
           <t>团购审核通过</t>
         </is>
       </c>
-      <c r="D5" s="13" t="inlineStr">
+      <c r="D5" s="12" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -3278,7 +3275,7 @@
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="inlineStr">
+      <c r="B6" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/recheck/approve</t>
         </is>
@@ -3288,7 +3285,7 @@
           <t>认购复审通过</t>
         </is>
       </c>
-      <c r="D6" s="13" t="inlineStr">
+      <c r="D6" s="12" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -3344,7 +3341,7 @@
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="inlineStr">
+      <c r="B7" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/expand/audit</t>
         </is>
@@ -3354,7 +3351,7 @@
           <t>拓展审核通过</t>
         </is>
       </c>
-      <c r="D7" s="13" t="inlineStr">
+      <c r="D7" s="12" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -3405,7 +3402,7 @@
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/finalCheck/approve</t>
         </is>
@@ -3415,7 +3412,7 @@
           <t>终审通过</t>
         </is>
       </c>
-      <c r="D8" s="13" t="inlineStr">
+      <c r="D8" s="12" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -3675,7 +3672,7 @@
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="inlineStr">
+      <c r="B9" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/initialSign/edit</t>
         </is>
@@ -3685,7 +3682,7 @@
           <t>添加草签</t>
         </is>
       </c>
-      <c r="D9" s="13" t="inlineStr">
+      <c r="D9" s="12" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -3743,7 +3740,7 @@
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/initialSign/approve</t>
         </is>
@@ -3753,7 +3750,7 @@
           <t>草签审核通过</t>
         </is>
       </c>
-      <c r="D10" s="13" t="inlineStr">
+      <c r="D10" s="12" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -3804,7 +3801,7 @@
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="inlineStr">
+      <c r="B11" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/netSign/edit</t>
         </is>
@@ -3814,7 +3811,7 @@
           <t>添加网签</t>
         </is>
       </c>
-      <c r="D11" s="13" t="inlineStr">
+      <c r="D11" s="12" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -3871,7 +3868,7 @@
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/netSign/approve</t>
         </is>
@@ -3881,7 +3878,7 @@
           <t>网签审核通过</t>
         </is>
       </c>
-      <c r="D12" s="13" t="inlineStr">
+      <c r="D12" s="12" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -3931,7 +3928,7 @@
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="inlineStr">
+      <c r="B13" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/app/trade/loan/add</t>
         </is>
@@ -3941,7 +3938,7 @@
           <t>添加放款</t>
         </is>
       </c>
-      <c r="D13" s="13" t="inlineStr">
+      <c r="D13" s="12" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -4093,7 +4090,7 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/receive/commission/ticket/manual/create</t>
         </is>
@@ -4137,7 +4134,7 @@
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F2" s="12" t="inlineStr">
+      <c r="F2" s="11" t="inlineStr">
         <is>
           <t>jszy_cookie</t>
         </is>
@@ -4154,12 +4151,12 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '对佣结算必须是本人'}</t>
         </is>
       </c>
       <c r="J2" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -4167,7 +4164,7 @@
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="inlineStr">
+      <c r="B3" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/receive/commission/ticket/confirm</t>
         </is>
@@ -4206,7 +4203,7 @@
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F3" s="12" t="inlineStr">
+      <c r="F3" s="11" t="inlineStr">
         <is>
           <t>jszy_cookie</t>
         </is>
@@ -4223,12 +4220,12 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
         </is>
       </c>
       <c r="J3" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4233,7 @@
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/receive/commission/ticket/adjust</t>
         </is>
@@ -4246,7 +4243,7 @@
           <t>对佣调整中审核通过</t>
         </is>
       </c>
-      <c r="D4" s="13" t="inlineStr">
+      <c r="D4" s="12" t="inlineStr">
         <is>
           <t>{
     "adjustOrders":false,
@@ -4280,7 +4277,7 @@
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F4" s="12" t="inlineStr">
+      <c r="F4" s="11" t="inlineStr">
         <is>
           <t>jszy_cookie</t>
         </is>
@@ -4297,12 +4294,12 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
         </is>
       </c>
       <c r="J4" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -4310,7 +4307,7 @@
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/receive/commission/ticket/invoice/apply</t>
         </is>
@@ -4320,7 +4317,7 @@
           <t>待申请开票</t>
         </is>
       </c>
-      <c r="D5" s="13" t="inlineStr">
+      <c r="D5" s="12" t="inlineStr">
         <is>
           <t>{
     "ticketId":"${rec_ticketId}",
@@ -4359,7 +4356,7 @@
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F5" s="12" t="inlineStr">
+      <c r="F5" s="11" t="inlineStr">
         <is>
           <t>jszy_cookie</t>
         </is>
@@ -4376,12 +4373,12 @@
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
         </is>
       </c>
       <c r="J5" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4386,7 @@
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="inlineStr">
+      <c r="B6" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/receive/commission/ticket/invoice/send</t>
         </is>
@@ -4399,7 +4396,7 @@
           <t>确认开票</t>
         </is>
       </c>
-      <c r="D6" s="13" t="inlineStr">
+      <c r="D6" s="12" t="inlineStr">
         <is>
           <t>{
     "ticketId":"${rec_ticketId}",
@@ -4425,7 +4422,7 @@
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F6" s="12" t="inlineStr">
+      <c r="F6" s="11" t="inlineStr">
         <is>
           <t>cw_cookie</t>
         </is>
@@ -4442,12 +4439,12 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
         </is>
       </c>
       <c r="J6" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -4455,7 +4452,7 @@
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="inlineStr">
+      <c r="B7" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/receive/commission/ticket/invoice/received</t>
         </is>
@@ -4465,7 +4462,7 @@
           <t>收票</t>
         </is>
       </c>
-      <c r="D7" s="13" t="inlineStr">
+      <c r="D7" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 {
@@ -4490,7 +4487,7 @@
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F7" s="12" t="inlineStr">
+      <c r="F7" s="11" t="inlineStr">
         <is>
           <t>jszy_cookie</t>
         </is>
@@ -4507,12 +4504,12 @@
       </c>
       <c r="I7" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
         </is>
       </c>
       <c r="J7" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -4520,7 +4517,7 @@
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/receive/commission/ticket/commissions/recieved</t>
         </is>
@@ -4530,7 +4527,7 @@
           <t>收款中</t>
         </is>
       </c>
-      <c r="D8" s="13" t="inlineStr">
+      <c r="D8" s="12" t="inlineStr">
         <is>
           <t>{
     "ticketId":"${rec_ticketId}",
@@ -4573,12 +4570,12 @@
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
         </is>
       </c>
       <c r="J8" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4673,7 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/manual/create</t>
         </is>
@@ -4760,7 +4757,7 @@
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="inlineStr">
+      <c r="B3" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/start</t>
         </is>
@@ -4817,7 +4814,7 @@
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/check/done</t>
         </is>
@@ -4901,7 +4898,7 @@
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/invoice/recieved</t>
         </is>
@@ -4967,7 +4964,7 @@
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="inlineStr">
+      <c r="B6" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/payed</t>
         </is>
@@ -5048,7 +5045,7 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -5117,7 +5114,7 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/platform/manual/create</t>
         </is>
@@ -5189,12 +5186,12 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '对佣结算必须是本人'}</t>
         </is>
       </c>
       <c r="J2" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -5202,7 +5199,7 @@
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/start</t>
         </is>
@@ -5246,12 +5243,12 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
         </is>
       </c>
       <c r="J3" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -5259,7 +5256,7 @@
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/check/done</t>
         </is>
@@ -5330,12 +5327,12 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
         </is>
       </c>
       <c r="J4" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -5343,7 +5340,7 @@
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/invoice/recieved</t>
         </is>
@@ -5396,12 +5393,12 @@
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
         </is>
       </c>
       <c r="J5" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -5409,7 +5406,7 @@
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="inlineStr">
+      <c r="B6" s="10" t="inlineStr">
         <is>
           <t>https://pre.yunjinji.cn/commission/admin/pay/commission/ticket/payed</t>
         </is>
@@ -5461,12 +5458,12 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
         </is>
       </c>
       <c r="J6" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -5490,15 +5487,15 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col width="25.3333333333333" customWidth="1" style="4" min="1" max="1"/>
     <col width="10.2222222222222" customWidth="1" style="4" min="2" max="2"/>
-    <col width="33.7777777777778" customWidth="1" style="1" min="3" max="3"/>
+    <col width="36.1111111111111" customWidth="1" style="1" min="3" max="3"/>
     <col width="20.4444444444444" customWidth="1" style="1" min="4" max="4"/>
     <col width="40.2222222222222" customWidth="1" style="1" min="5" max="5"/>
   </cols>
@@ -5556,7 +5553,7 @@
       </c>
       <c r="E2" s="7" t="inlineStr">
         <is>
-          <t>cf0b4d44-0ca7-4097-8332-8dd253abef6a</t>
+          <t>e51c6657-655e-41af-9de9-bd7eb08c6f45</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
@@ -5586,7 +5583,7 @@
       </c>
       <c r="E3" s="7" t="inlineStr">
         <is>
-          <t>eb4fb687-2114-46c9-99a6-2116566305cc</t>
+          <t>cdd014ae-16a8-4d65-8788-ef6c580ef9b2</t>
         </is>
       </c>
       <c r="F3" s="7" t="inlineStr">
@@ -5616,7 +5613,7 @@
       </c>
       <c r="E4" s="7" t="inlineStr">
         <is>
-          <t>1ce75d03-0614-4f6f-9f4b-1ac6ada9d21c</t>
+          <t>0bd9a727-84ea-4e58-b3f9-232c692e29bc</t>
         </is>
       </c>
       <c r="F4" s="7" t="inlineStr">
@@ -5646,7 +5643,7 @@
       </c>
       <c r="E5" s="7" t="inlineStr">
         <is>
-          <t>07400f87-2a51-47d1-af25-c705105df15a</t>
+          <t>31b713e6-1d24-483c-bfe3-4ec9db5d57d3</t>
         </is>
       </c>
       <c r="F5" s="7" t="inlineStr">
@@ -5676,7 +5673,7 @@
       </c>
       <c r="E6" s="7" t="inlineStr">
         <is>
-          <t>fde4bcc3-46ce-43ef-8ccf-882a78f473ff</t>
+          <t>ff5f0ba1-ae9f-4ad6-aa68-95043c36bdab</t>
         </is>
       </c>
       <c r="F6" s="7" t="inlineStr">
@@ -5706,7 +5703,7 @@
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>f77ca903-4fcd-4b3f-adee-54da259d4953</t>
+          <t>3c0917ed-5ce2-4276-84a0-15f816210351</t>
         </is>
       </c>
       <c r="F7" s="7" t="inlineStr">
@@ -5736,7 +5733,7 @@
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>f829ff19-bd49-4d06-a8be-c90879752b05</t>
+          <t>9f3cb39a-1bd1-4e16-a082-dc3e36f5eae0</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr">
@@ -5766,7 +5763,7 @@
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>c4bf0236-3658-41f0-b628-667690dc0d15</t>
+          <t>afd0006b-dcd8-466d-8355-f20dbcbfd7d4</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr">
@@ -5796,7 +5793,7 @@
       </c>
       <c r="E10" s="7" t="inlineStr">
         <is>
-          <t>bfe0e89d-b166-4cff-a4fa-075b3a23ae67</t>
+          <t>f8e28c73-89db-42ad-9778-bfc8a893d749</t>
         </is>
       </c>
       <c r="F10" s="7" t="inlineStr">
@@ -5840,7 +5837,7 @@
         </is>
       </c>
       <c r="D1" s="0" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
